--- a/lesson9/test1.xlsx
+++ b/lesson9/test1.xlsx
@@ -38,7 +38,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -52,17 +52,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0E7F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFE5F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00016F5F"/>
+        <fgColor rgb="004095C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001604E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8EFF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCC7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1D1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9F0F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0014869D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F8598"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDC8E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00017062"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,57 +107,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003A92C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00016654"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CB5D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00027978"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6EDF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6DEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBE1F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00015241"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00017165"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009FBBDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0001503F"/>
+        <fgColor rgb="00EAE1EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C9BC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DED9EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFC9E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7BDDB"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -153,21 +158,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -558,32 +564,32 @@
         <v>44197</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.8599831472155556</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1.242900731980978</v>
+        <v>0.09603853352896208</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.09779477644186851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>44198</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>1.403219754896215</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>1.610135742554339</v>
+      <c r="B3" s="4" t="n">
+        <v>3.393815449753556</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>3.86307686883348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>44199</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>0.9318520608842862</v>
+      <c r="B4" s="6" t="n">
+        <v>4.642408447204856</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>4.43259512531831</v>
+        <v>2.223540217639163</v>
       </c>
     </row>
     <row r="5">
@@ -591,32 +597,32 @@
         <v>44200</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1.426240792649904</v>
+        <v>1.193977195582226</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.530107516614257</v>
+        <v>4.397461879406936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>4.424704971271673</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>4.83444091219784</v>
+      <c r="B6" s="10" t="n">
+        <v>2.244008568520721</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>2.369568049331668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>44202</v>
       </c>
-      <c r="B7" s="11" t="n">
-        <v>2.366656474176891</v>
+      <c r="B7" s="3" t="n">
+        <v>0.5284315911125986</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>4.371350146033267</v>
+        <v>1.545125782552523</v>
       </c>
     </row>
     <row r="8">
@@ -624,21 +630,21 @@
         <v>44203</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>3.455518779395303</v>
+        <v>1.994210356496324</v>
       </c>
       <c r="C8" s="14" t="n">
-        <v>2.550391333483109</v>
+        <v>3.280499106043018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>44204</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>4.566686806791191</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0.6929179703356447</v>
+      <c r="B9" s="3" t="n">
+        <v>0.1786456046222867</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>1.760961515477195</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +652,10 @@
         <v>44205</v>
       </c>
       <c r="B10" s="16" t="n">
-        <v>2.71071759814332</v>
+        <v>1.159366633223662</v>
       </c>
       <c r="C10" s="17" t="n">
-        <v>4.867509777186656</v>
+        <v>2.208568003331035</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +663,10 @@
         <v>44206</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>4.18293628062562</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>2.374408810866257</v>
+        <v>3.823443906125123</v>
+      </c>
+      <c r="C11" s="19" t="n">
+        <v>2.496912234584036</v>
       </c>
     </row>
   </sheetData>
